--- a/Data/Neronix17/Archotech Genetics - 2995858859/1.6/2995858859.xlsx
+++ b/Data/Neronix17/Archotech Genetics - 2995858859/1.6/2995858859.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_251010" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Main_260205" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="251010" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="292">
   <si>
     <t xml:space="preserve">Class+Node [(Identifier (Key)]</t>
   </si>
@@ -37,6 +38,781 @@
     <t xml:space="preserve">English [Source string]</t>
   </si>
   <si>
+    <t xml:space="preserve">Korean (한국어) [Translation]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSkin.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechSkin.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archoskin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월피부</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSkin.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechSkin.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archo-skinned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSkin.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechSkin.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene have a rigid but smooth skin, with strange lightly glowing lines along seemingly random sections of their bodies, even their hair has a vibrant slight glow to it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 매끄러우면서도 단단한 피부를 가지며, 신체의 무작위적인 부분을 따라 가볍게 빛나는 이상한 선이 생깁니다. 심지어 체모에서도 약한 빛이 납니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechMuscles.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechMuscles.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archomuscles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월근육</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechMuscles.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechMuscles.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archo-muscled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechMuscles.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechMuscles.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene have extremely reactive muscle fibers, giving them a much higher than normal control over their motor functions and resulting in being able to work faster at most jobs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 극도로 반응성이 강한 근섬유를 가지고 있어 일반인보다 운동 및 제어 기능이 훨씬 뛰어나며, 대부분의 일을 빠르게 처리할 수 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechMemory.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechMemory.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archomemory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월기억</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechMemory.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechMemory.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archo-minded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechMemory.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechMemory.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene can absorb information much faster and more easily than a baseline human, learning any skill takes them a small portion of the time it would usually take.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 일반인보다 훨씬 빠르고 쉽게 정보를 흡수할 수 있어, 어떤 기술이든 배우는 데 훨씬 적은 시간이 걸립니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPresence.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechPresence.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intimidating presence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">위협적인 존재감</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPresence.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechPresence.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intimidating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">위협적</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPresence.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechPresence.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene have a naturally intimidating presence, causing their social interactions to carry twice as much weight compared to a baseliner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 본질적으로 위협적인 존재감을 가지고 있어, 사회적 상호작용의 무게감이 일반인보다 두 배 정도 더 강력합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechLegs.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechLegs.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archolegs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월다리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechLegs.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechLegs.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빠름</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechLegs.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechLegs.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene move at speeds baseliners can only dream of.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 일반인들이 꿈에서나 볼 법한 속도로 움직일 수 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechToxImmunity.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechToxImmunity.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-toxic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">독성 무효화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechToxImmunity.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechToxImmunity.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">독성 면역</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechToxImmunity.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechToxImmunity.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene are immune to direct tox exposure as well as toxic environments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 모든 독성 환경뿐만아니라 직접적인 독소 노출에 대한 면역을 가지고 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPain.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechPain.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">painless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고통 무효화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPain.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechPain.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pain-free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고통에서 자유로운</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPain.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechPain.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene are incapable of feeling any pain at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 어떠한 고통도 느끼지 않습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechTemperature.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechTemperature.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perfect temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">완벽한 온도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechTemperature.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechTemperature.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate-controlled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기온 조절</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechTemperature.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechTemperature.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene are always perfectly comfortable in any temperature, they can't even catch fire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 어떤 온도에서도 편안하게 생활이 가능하며, 몸에 불이 붙지도 않습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPsycaster.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechPsycaster.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innate psycaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">타고난 초능력자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPsycaster.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechPsycaster.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innate-casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">타고난 초능력</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPsycaster.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechPsycaster.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene have a natural affinity for psycasting to a degree that makes most masters look like they're just getting started.\n\nNote: This does not make them a psycaster, it just makes them particularly good at it when they are one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 자연적으로 초능력에 대한 친화력을 가지고 있어, 대부분 초능력의 대가라고 불리는 이들조차도 갓 시작한 어린아이처럼 보이게 만듭니다.
+주의: 이 유전자는 보유자를 초능력자로 만들어주지 않습니다. 단지 초능력을 사용하는 데 더 큰 이익을 줄 뿐입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSight.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechSight.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archosight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월시력</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSight.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechSight.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archo-sighted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSight.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechSight.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene have faultless sight, incapable of functioning at less than 200%, even when their physical eyes are destroyed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 결점이 없는 시력을 가지고 있으며, 물리적인 안구가 파괴되어도 능률이 200% 이하로 떨어지지 않습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSight.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchotechSight.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sight capacity has a minimum value of 200%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시력 능률이 최소 200%로 유지됩니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_Eyes_Archotech.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Eyes_Archotech.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archotech eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월공학 눈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_Eyes_Archotech.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Eyes_Archotech.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월시야</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_Eyes_Archotech.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Eyes_Archotech.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene have slightly glowing green eyes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 초록색으로 약하게 빛나는 눈을 가지게 됩니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_Skin_Archotech.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Skin_Archotech.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archotech skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월공학 피부</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_Skin_Archotech.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Skin_Archotech.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archotech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월공학</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_Skin_Archotech.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Skin_Archotech.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this produce a unnatural green pigment in their skin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 피부에 비자연스러운 녹색 색소가 형성됩니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_Hair_Archotech.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Hair_Archotech.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene have a particular hair color. With multiple hair color genes, one is randomly selected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자를 보유하면 특정 머리카락 색을 갖습니다. 다수의 머리카락 색 유전자를 보유하면 하나를 무작위로 선택합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_Hair_Archotech.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Hair_Archotech.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archotech hair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월공학 머리카락</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchoRegeneration.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchoRegeneration.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archoregeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월재생</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchoRegeneration.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchoRegeneration.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene heal from wounds significantly faster than normal and even regenerate limbs within mere days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 상처가 정상보다 훨씬 빠르게 회복되며, 잃은 사지조차도 며칠 정도면 재생할 수 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchoRegeneration.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchoRegeneration.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapidly heals all wounds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 상처와 흉터를 빠르게 회복합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchoRegeneration.customEffectDescriptions.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchoRegeneration.customEffectDescriptions.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regenerates any missing body parts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잃어버린 모든 신체 부위를 재생할 수 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_ArchoRegeneration.customEffectDescriptions.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchoRegeneration.customEffectDescriptions.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevents illness/infection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 질병과 만성 질환에 면역입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_Blood_Archotech.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Blood_Archotech.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archoblood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월혈액</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_Blood_Archotech.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Blood_Archotech.labelShortAdj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archo-blooded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_Blood_Archotech.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Blood_Archotech.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carriers of this gene have archotech enhanced blood. This severely reduces bleed rate, and increases natural healing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 유전자의 보유자는 초월공학으로 강화된 혈액을 가지고 있습니다. 이 혈액은 뛰어난 자연 회복 능력을 가지며, 출혈이 금방 멎습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneDef+ArchoGenes_Blood_Archotech.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Blood_Archotech.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slows bleeding to 10% of normal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">출혈 속도가 기본의 10퍼센트로 감소합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThingDef+ArchoGenes_Filth_BloodArchotech.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThingDef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Filth_BloodArchotech.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XenotypeDef+ArchoGenes_Archinite.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XenotypeDef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Archinite.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archinite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월체</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XenotypeDef+ArchoGenes_Archinite.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Archinite.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As close as a mortal can get to becoming a living god, this archotech xenotype gifted to humanity from an unknown entity allows one to become immortal, undying and unafflicted by mortal matters such as illness or age, healing from any wound and almost untouchable by normal weapons. Archinites can reproduce but will not pass along any of their god-like gifts to their young, requiring anyone who wishes to become one to be lucky enough to stumble across a rare Archotech Biounit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">필멸자가 도달할 수 있는, '살아있는 신'에 가장 가까운 존재입니다. 이 초월공학 인종형은 어느 미지의 존재가 인류에게 선사한 것으로, 이들은 질병이나 노화와 같은 필멸자의 굴레에서 벗어난 불로불사의 존재입니다. 어떠한 부상도 치유할 수 있으며 일반적인 무기로는 거의 해를 입지 않습니다. 초월체는 번식이 가능하지만, 이들의 신적인 능력은 후대에 전달되지 않습니다. 따라서 초월체가 되기 위해서는 희귀한 초월공학 이식체를 우연히 발견하는 행운이 따라야만 합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XenotypeDef+ArchoGenes_Archinite.descriptionShort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_Archinite.descriptionShort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As close as a mortal can get to becoming a living god, this archotech xenotype gifted to humanity from an unknown entity allows one to become immortal, undying and unafflicted by mortal matters such as illness or age, healing from any wound and almost untouchable by normal weapons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">필멸자가 도달할 수 있는, '살아있는 신'에 가장 가까운 존재입니다. 이 초월공학 인종형은 어느 미지의 존재가 인류에게 선사한 것으로, 이들은 질병이나 노화와 같은 필멸자의 굴레에서 벗어난 불로불사의 존재입니다. 어떠한 부상도 치유할 수 있으며 일반적인 무기로는 거의 해를 입지 않습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HediffDef+ArchoGenes_ArchoBlood.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HediffDef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchoBlood.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archotech blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월공학 피</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HediffDef+ArchoGenes_ArchoBlood.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ArchoBlood.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This person blood with unique properties that make it seem like the blood itself wants to stay inside the persons body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 사람의 피는 마치 혈액 자체가 소유자의 몸으로 돌아가고 싶어하는 듯한 특별한 능력을 가지고 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HediffDef+ArchoGenes_ProtoBodypart.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ProtoBodypart.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">재성장</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HediffDef+ArchoGenes_ProtoBodypart.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_ProtoBodypart.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This body part is regrowing, strangely causing no pain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 신체 부위는 재성장 중이며, 기이하게도 아무런 고통도 유발하지 않습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IncidentDef+ArchoGenes_BioUnitPodCrash.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IncidentDef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_BioUnitPodCrash.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glowing pod crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빛나는 포드 충돌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThingDef+ArchoGenes_BioUnit.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_BioUnit.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archotech bio-unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초월공학 이식체</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThingDef+ArchoGenes_BioUnit.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_BioUnit.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A strangely organic looking Archotech device, one of the sides opens when a hand is put near it, suggesting someone needs to directly interface with it physically for it to function. A DNA symbol on the glass sphere on the top of the device suggests it may have some genetic component to it, but what will happen when it's used is unclear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기묘하게 유기적인 형태를 가진 초월공학 장치입니다. 손을 가까이 대자 한쪽 면이 열리는 것으로 보아, 작동을 위해서는 직접적인 물리적 접촉이 필요한 듯합니다. 상단의 유리 구체에 새겨진 DNA 기호는 유전자 관련 기능이 있음을 암시하지만, 사용 시 결과는 알 수 없습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThingDef+ArchoGenes_BioUnit.comps.1.useLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes_BioUnit.comps.1.useLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activate {0_label}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">활성화 {0_label}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+ArchoGenes.UsedBioUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes.UsedBioUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{USER_labelShort} used an archotech bio-unit, their genes were modified and they are now a powerful Archinite!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{USER_labelShort}(이)가 초월공학 이식체를 사용하자, 유전자가 변형되어 이젠 강력한 초월체가 되었습니다!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+ArchoGenes.LetterLabelCargoPodCrash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes.LetterLabelCargoPodCrash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glowing cargo pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빛나는 수송 포드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+ArchoGenes.CargoPodCrash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes.CargoPodCrash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have detected a lone cargo pod crashing nearby.\n\nThere's something giving off a strange green glow from the pod...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">근처에 추락한 화물 수송 포드 하나가 감지되었습니다. 포드 안에서 기이한 초록색 빛이 새어 나오고 있습니다...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+ArchoGenes.AlreadyArchinite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes.AlreadyArchinite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pawn already Archinite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정착민이 이미 초월체임</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+ArchoGenes.NonHumanIncompatible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchoGenes.NonHumanIncompatible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Human, Incompatible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인간이 아니기 때문에 사용이 불가능함</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -53,6 +829,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">한국어</t>
     </r>
@@ -68,45 +845,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSkin.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechSkin.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archoskin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월피부</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSkin.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechSkin.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archo-skinned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSkin.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechSkin.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene have a rigid but smooth skin, with strange lightly glowing lines along seemingly random sections of their bodies, even their hair has a vibrant slight glow to it.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 매끄러우면서도 단단한 피부를 가지며</t>
     </r>
@@ -126,6 +871,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">신체의 무작위적인 부분을 따라 가볍게 빛나는 이상한 선이 생깁니다</t>
     </r>
@@ -145,6 +891,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">심지어 체모에서도 약한 빛이 납니다</t>
     </r>
@@ -160,42 +907,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechMuscles.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechMuscles.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archomuscles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월근육</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechMuscles.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechMuscles.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archo-muscled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechMuscles.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechMuscles.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene have extremely reactive muscle fibers, giving them a much higher than normal control over their motor functions and resulting in being able to work faster at most jobs.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 극도로 반응성이 강한 근섬유를 가지고 있어 일반인보다 운동 및 제어 기능이 훨씬 뛰어나며</t>
     </r>
@@ -215,6 +933,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">대부분의 일을 빠르게 처리할 수 있습니다</t>
     </r>
@@ -230,42 +949,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechMemory.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechMemory.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archomemory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월기억</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechMemory.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechMemory.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archo-minded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechMemory.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechMemory.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene can absorb information much faster and more easily than a baseline human, learning any skill takes them a small portion of the time it would usually take.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 일반인보다 훨씬 빠르고 쉽게 정보를 흡수할 수 있어</t>
     </r>
@@ -285,6 +975,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">어떤 기술이든 배우는 데 훨씬 적은 시간이 걸립니다</t>
     </r>
@@ -300,45 +991,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPresence.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechPresence.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intimidating presence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">위협적인 존재감</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPresence.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechPresence.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intimidating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">위협적</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPresence.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechPresence.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene have a naturally intimidating presence, causing their social interactions to carry twice as much weight compared to a baseliner.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 본질적으로 위협적인 존재감을 가지고 있어</t>
     </r>
@@ -358,6 +1017,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">사회적 상호작용의 무게감이 일반인보다 두 배 정도 더 강력합니다</t>
     </r>
@@ -373,45 +1033,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechLegs.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechLegs.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archolegs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월다리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechLegs.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechLegs.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빠름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechLegs.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechLegs.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene move at speeds baseliners can only dream of.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 일반인들이 꿈으로나 생각하는 속도로 움직일 수 있습니다</t>
     </r>
@@ -427,42 +1055,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechToxImmunity.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechToxImmunity.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non-toxic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">독성 무효화</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechToxImmunity.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechToxImmunity.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">독성 면역</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechToxImmunity.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechToxImmunity.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene are immune to direct tox exposure as well as toxic environments.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 모든 독성 환경뿐만아니라 직접적인 독소 노출에 대한 면역을 가지고 있습니다</t>
     </r>
@@ -478,45 +1077,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPain.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechPain.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">painless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고통 무효화</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPain.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechPain.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pain-free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고통에서 자유로운</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPain.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechPain.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene are incapable of feeling any pain at all.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 어떠한 고통도 느끼지 않습니다</t>
     </r>
@@ -532,45 +1099,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechTemperature.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechTemperature.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfect temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">완벽한 온도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechTemperature.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechTemperature.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate-controlled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기온 조절</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechTemperature.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechTemperature.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene are always perfectly comfortable in any temperature, they can't even catch fire.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 어떤 온도에서도 편안하게 생활이 가능하며</t>
     </r>
@@ -590,6 +1125,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">몸에 불이 붙지도 않습니다</t>
     </r>
@@ -605,45 +1141,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPsycaster.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechPsycaster.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innate psycaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">타고난 초능력자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPsycaster.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechPsycaster.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innate-casting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">타고난 초능력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechPsycaster.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechPsycaster.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene have a natural affinity for psycasting to a degree that makes most masters look like they're just getting started.\n\nNote: This does not make them a psycaster, it just makes them particularly good at it when they are one.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 자연적으로 초능력에 대한 친화력을 가지고 있어</t>
     </r>
@@ -663,6 +1167,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">대부분 초능력의 대가라고 불리는 이들조차도 갓 시작한 어린아이처럼 보이게 만듭니다</t>
     </r>
@@ -683,6 +1188,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">주의</t>
     </r>
@@ -702,6 +1208,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자는 보유자를 초능력자로 만들어주지 않습니다</t>
     </r>
@@ -721,6 +1228,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">단지 초능력을 사용하는 데 더 큰 이익을 줄 뿐입니다</t>
     </r>
@@ -736,42 +1244,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSight.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechSight.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archosight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월시력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSight.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechSight.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archo-sighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSight.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechSight.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene have faultless sight, incapable of functioning at less than 200%, even when their physical eyes are destroyed.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 결점이 없는 시력을 가지고 있으며</t>
     </r>
@@ -791,6 +1270,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">물리적인 안구가 파괴되어도 능률이 </t>
     </r>
@@ -810,6 +1290,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이하로 떨어지지 않습니다</t>
     </r>
@@ -825,21 +1306,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchotechSight.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchotechSight.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sight capacity has a minimum value of 200%.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">시력 능률이 최소 </t>
     </r>
@@ -859,6 +1332,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">로 유지됩니다</t>
     </r>
@@ -874,42 +1348,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_Eyes_Archotech.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Eyes_Archotech.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archotech eyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월공학 눈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_Eyes_Archotech.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Eyes_Archotech.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월시야</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_Eyes_Archotech.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Eyes_Archotech.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene have slightly glowing green eyes.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 초록색으로 약하게 빛나는 눈을 가지게 됩니다</t>
     </r>
@@ -925,45 +1370,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_Skin_Archotech.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Skin_Archotech.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archotech skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월공학 피부</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_Skin_Archotech.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Skin_Archotech.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archotech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월공학</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_Skin_Archotech.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Skin_Archotech.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this produce a unnatural green pigment in their skin.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 피부에 비자연스러운 녹색 색소가 형성됩니다</t>
     </r>
@@ -979,21 +1392,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_Hair_Archotech.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Hair_Archotech.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene have a particular hair color. With multiple hair color genes, one is randomly selected.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자를 보유하면 특정 머리카락 색을 갖습니다</t>
     </r>
@@ -1013,6 +1418,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">다수의 머리카락 색 유전자를 보유하면 하나를 무작위로 선택합니다</t>
     </r>
@@ -1028,45 +1434,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_Hair_Archotech.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Hair_Archotech.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archotech hair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월공학 머리카락</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchoRegeneration.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchoRegeneration.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archoregeneration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월재생</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchoRegeneration.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchoRegeneration.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene heal from wounds significantly faster than normal and even regenerate limbs within mere days.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 상처가 정상보다 훨씬 빠르게 회복되며</t>
     </r>
@@ -1086,6 +1460,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">잃은 사지조차도 며칠 정도면 재생할 수 있습니다</t>
     </r>
@@ -1101,21 +1476,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchoRegeneration.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchoRegeneration.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapidly heals all wounds.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">모든 상처와 흉터를 빠르게 회복합니다</t>
     </r>
@@ -1131,21 +1498,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchoRegeneration.customEffectDescriptions.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchoRegeneration.customEffectDescriptions.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regenerates any missing body parts.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">잃어버린 모든 신체 부위를 재생할 수 있습니다</t>
     </r>
@@ -1161,21 +1520,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_ArchoRegeneration.customEffectDescriptions.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchoRegeneration.customEffectDescriptions.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevents illness/infection.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">모든 질병과 만성 질환에 면역입니다</t>
     </r>
@@ -1191,42 +1542,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_Blood_Archotech.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Blood_Archotech.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archoblood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월혈액</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_Blood_Archotech.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Blood_Archotech.labelShortAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archo-blooded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_Blood_Archotech.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Blood_Archotech.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carriers of this gene have archotech enhanced blood. This severely reduces bleed rate, and increases natural healing.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 유전자의 보유자는 초월공학으로 강화된 혈액을 가지고 있습니다</t>
     </r>
@@ -1246,6 +1568,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 혈액은 뛰어난 자연 회복 능력을 가지며</t>
     </r>
@@ -1265,6 +1588,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">출혈이 금방 멎습니다</t>
     </r>
@@ -1280,21 +1604,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GeneDef+ArchoGenes_Blood_Archotech.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Blood_Archotech.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slows bleeding to 10% of normal.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">출혈 속도가 기본의 </t>
     </r>
@@ -1314,6 +1630,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">퍼센트로 감소합니다</t>
     </r>
@@ -1329,45 +1646,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ThingDef+ArchoGenes_Filth_BloodArchotech.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThingDef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Filth_BloodArchotech.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XenotypeDef+ArchoGenes_Archinite.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XenotypeDef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Archinite.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archinite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월체</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XenotypeDef+ArchoGenes_Archinite.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Archinite.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As close as a mortal can get to becoming a living god, this archotech xenotype gifted to humanity from an unknown entity allows one to become immortal, undying and unafflicted by mortal matters such as illness or age, healing from any wound and almost untouchable by normal weapons. Archinites can reproduce but will not pass along any of their god-like gifts to their young, requiring anyone who wishes to become one to be lucky enough to stumble across a rare Archotech Biounit.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">필멸자가 살아있는 신에 가장 가까이 다가갈 수 있는 형태인 이 초월공학 인종형은 어느 미지의 존재가 인류에게 선사한 것입니다</t>
     </r>
@@ -1387,6 +1672,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이들은 질병이나 노화와 같은 필멸자의 문제에 시달리지 않으며</t>
     </r>
@@ -1406,6 +1692,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">불로불사의 존재입니다</t>
     </r>
@@ -1425,6 +1712,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">어떠한 부상도 치유할 수 있으며 일반적인 무기로는 거의 해를 입지 않습니다</t>
     </r>
@@ -1444,6 +1732,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">초월체는 번식이 가능하지만</t>
     </r>
@@ -1463,6 +1752,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이들의 신적인 능력은 후대에 전달되지 않습니다</t>
     </r>
@@ -1482,6 +1772,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">따라서 초월체가 되기 위해서는 희귀한 초월공학 이식체를 우연히 발견하는 행운이 따라야만 합니다</t>
     </r>
@@ -1497,21 +1788,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">XenotypeDef+ArchoGenes_Archinite.descriptionShort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_Archinite.descriptionShort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As close as a mortal can get to becoming a living god, this archotech xenotype gifted to humanity from an unknown entity allows one to become immortal, undying and unafflicted by mortal matters such as illness or age, healing from any wound and almost untouchable by normal weapons.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">필멸자가 살아있는 신에 가장 가까이 다가갈 수 있는 형태인 이 초월공학 인종형은 어느 미지의 존재가 인류에게 선사한 것입니다</t>
     </r>
@@ -1531,6 +1814,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이들은 질병이나 노화와 같은 필멸자의 문제에 시달리지 않으며</t>
     </r>
@@ -1550,6 +1834,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">불로불사의 존재입니다</t>
     </r>
@@ -1569,6 +1854,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">어떠한 부상도 치유할 수 있으며 일반적인 무기로는 거의 해를 입지 않습니다</t>
     </r>
@@ -1584,36 +1870,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">HediffDef+ArchoGenes_ArchoBlood.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HediffDef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchoBlood.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archotech blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월공학 피</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HediffDef+ArchoGenes_ArchoBlood.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ArchoBlood.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This person blood with unique properties that make it seem like the blood itself wants to stay inside the persons body.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 사람의 피는 마치 혈액 자체가 소유자의 몸으로 돌아가고 싶어하는 듯한 특별한 능력을 가지고 있습니다</t>
     </r>
@@ -1629,33 +1892,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">HediffDef+ArchoGenes_ProtoBodypart.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ProtoBodypart.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">재성장</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HediffDef+ArchoGenes_ProtoBodypart.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_ProtoBodypart.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This body part is regrowing, strangely causing no pain.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 신체 부위는 재성장 중이며</t>
     </r>
@@ -1675,6 +1918,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">기이하게도 아무런 고통도 유발하지 않습니다</t>
     </r>
@@ -1690,48 +1934,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">IncidentDef+ArchoGenes_BioUnitPodCrash.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IncidentDef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_BioUnitPodCrash.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glowing pod crash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빛나는 포드 충돌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThingDef+ArchoGenes_BioUnit.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_BioUnit.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archotech bio-unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">초월공학 이식체</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThingDef+ArchoGenes_BioUnit.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_BioUnit.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A strangely organic looking Archotech device, one of the sides opens when a hand is put near it, suggesting someone needs to directly interface with it physically for it to function. A DNA symbol on the glass sphere on the top of the device suggests it may have some genetic component to it, but what will happen when it's used is unclear.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">기묘하게 유기적인 형태를 가진 초월공학 장치가 있습니다</t>
     </r>
@@ -1751,6 +1960,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">손을 가까이 대자 한쪽 면이 열리는 것으로 보아</t>
     </r>
@@ -1770,6 +1980,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">작동을 위해서는 직접적인 물리적 접촉이 필요한 듯합니다</t>
     </r>
@@ -1789,6 +2000,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">상단의 유리 구체에 새겨진 </t>
     </r>
@@ -1808,6 +2020,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">기호는 유전자 관련 기능이 있음을 암시하지만</t>
     </r>
@@ -1827,6 +2040,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">사용 시 결과는 알 수 없습니다</t>
     </r>
@@ -1842,21 +2056,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ThingDef+ArchoGenes_BioUnit.comps.1.useLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes_BioUnit.comps.1.useLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activate {0_label}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">활성화 </t>
     </r>
@@ -1872,18 +2078,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Keyed+ArchoGenes.UsedBioUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes.UsedBioUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{USER_labelShort} used an archotech bio-unit, their genes were modified and they are now a powerful Archinite!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1900,6 +2094,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이</t>
     </r>
@@ -1919,6 +2114,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">가 초월공학 이식체를 사용하자</t>
     </r>
@@ -1938,6 +2134,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">유전자가 변형되어 이젠 강력한 초월체가 되었습니다</t>
     </r>
@@ -1953,33 +2150,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Keyed+ArchoGenes.LetterLabelCargoPodCrash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes.LetterLabelCargoPodCrash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glowing cargo pod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빛나는 수송 포드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+ArchoGenes.CargoPodCrash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes.CargoPodCrash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have detected a lone cargo pod crashing nearby.\n\nThere's something giving off a strange green glow from the pod...</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">근처에 추락한 화물 수송 포드 하나가 감지되었습니다</t>
     </r>
@@ -1999,6 +2176,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">포드 안에서 기이한 초록색 빛이 새어 나오고 있습니다</t>
     </r>
@@ -2012,30 +2190,6 @@
       </rPr>
       <t xml:space="preserve">...</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+ArchoGenes.AlreadyArchinite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes.AlreadyArchinite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pawn already Archinite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">정착민이 이미 초월체임</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+ArchoGenes.NonHumanIncompatible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArchoGenes.NonHumanIncompatible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Human, Incompatible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인간이 아니기 때문에 사용이 불가능함</t>
   </si>
 </sst>
 </file>
@@ -2051,6 +2205,7 @@
       <color rgb="FF000000"/>
       <name val="나눔고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2124,12 +2279,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2137,11 +2296,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2340,1142 +2499,2298 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.58"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="72.65"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="39.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="77" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="77" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff페이지 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F66"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="53.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="45.84"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="33.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="74.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="2" width="7.63"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="2" width="53.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="45.84"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="2" width="33.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="74.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="38.99"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="3" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
+      <c r="F1" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
+      <c r="F4" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
+      <c r="F7" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
+      <c r="F10" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
+      <c r="F13" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
+      <c r="F16" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>74</v>
+      <c r="F19" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>86</v>
+      <c r="F22" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>98</v>
+      <c r="F25" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="53" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+    <row r="28" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>110</v>
+      <c r="F28" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>121</v>
+      <c r="F31" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>125</v>
+      <c r="F32" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>136</v>
+      <c r="F35" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>148</v>
+      <c r="F38" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>152</v>
+      <c r="F39" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>164</v>
+      <c r="F42" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>168</v>
+      <c r="F43" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>172</v>
+      <c r="F44" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>176</v>
+      <c r="F45" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>187</v>
+      <c r="F48" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>191</v>
+      <c r="F49" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>203</v>
+      <c r="F52" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>207</v>
+      <c r="F53" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>216</v>
+      <c r="F55" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>224</v>
+      <c r="F57" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>237</v>
+      <c r="F60" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>241</v>
+      <c r="F61" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>246</v>
+      <c r="F62" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>254</v>
+      <c r="F64" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>262</v>
       </c>
     </row>
